--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellxps15\Desktop\Vanderbilt\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellxps15\Desktop\Vanderbilt\ML\51-boyce-mlproj-NIDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE36DDF1-FF49-4A5A-8634-CD6705975BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E4D296-FA0C-4E04-8D5A-C51D76B651D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F465CED-D8E3-4D04-A344-6B274ADC3BA6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>IPV4_SRC_ADDR</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Total packets sent during session</t>
   </si>
   <si>
-    <t>TCP Flags; i.e. 1 = Urent PTR, 2 = ACK, etc</t>
-  </si>
-  <si>
     <t>Unknown; email sent to research team at UofQ; i.e. what is 9?</t>
   </si>
   <si>
@@ -260,6 +257,33 @@
   </si>
   <si>
     <t>Where data was pulled from</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Decoding</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>String?</t>
+  </si>
+  <si>
+    <t>Int?</t>
   </si>
 </sst>
 </file>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF3A3B-1913-4E9A-AAC1-E9765204C5FF}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,372 +650,545 @@
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>74</v>
+      <c r="C47" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellxps15\Desktop\Vanderbilt\ML\51-boyce-mlproj-NIDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E4D296-FA0C-4E04-8D5A-C51D76B651D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F9D4D-6DB4-4AD6-99C4-16A44F34FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F465CED-D8E3-4D04-A344-6B274ADC3BA6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>IPV4_SRC_ADDR</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Return code from server</t>
   </si>
   <si>
-    <t>Unknown; email sen to UofQ</t>
-  </si>
-  <si>
     <t>What traffic was ultimately classified as</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>Int?</t>
+  </si>
+  <si>
+    <t>Bening or malicious</t>
+  </si>
+  <si>
+    <t>0 = benign; 1 = malicious</t>
   </si>
 </sst>
 </file>
@@ -319,10 +322,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,28 +646,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF3A3B-1913-4E9A-AAC1-E9765204C5FF}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,7 +679,7 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -683,7 +690,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,7 +701,7 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -705,7 +712,7 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -716,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -730,10 +737,10 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -744,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -755,7 +762,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -766,7 +773,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -777,7 +784,7 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -788,10 +795,10 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -802,10 +809,10 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -816,10 +823,10 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -830,7 +837,7 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -841,7 +848,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -852,7 +859,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,7 +870,7 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,7 +881,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -885,7 +892,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -896,7 +903,7 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -907,7 +914,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -918,7 +925,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -929,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -940,7 +947,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -951,7 +958,7 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -962,7 +969,7 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -973,7 +980,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -984,7 +991,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,7 +1002,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,7 +1013,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,7 +1024,7 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,7 +1035,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,7 +1046,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,7 +1057,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,7 +1068,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +1079,7 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1090,7 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1094,10 +1101,10 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1108,10 +1115,10 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1122,7 +1129,7 @@
         <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,7 +1140,7 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1144,7 +1151,7 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,18 +1162,18 @@
         <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1174,10 +1181,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1185,10 +1195,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellxps15\Desktop\Vanderbilt\ML\51-boyce-mlproj-NIDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F9D4D-6DB4-4AD6-99C4-16A44F34FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C69B1D-8F52-499C-A7AC-00E662199875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F465CED-D8E3-4D04-A344-6B274ADC3BA6}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,7 +1165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1174,6 +1174,9 @@
       </c>
       <c r="C45" t="s">
         <v>77</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1185,9 +1188,6 @@
       </c>
       <c r="C46" t="s">
         <v>77</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
